--- a/Documents/Iteration Plan.xlsx
+++ b/Documents/Iteration Plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s528176\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s528176\Desktop\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +191,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,15 +227,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,280 +549,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
